--- a/ky/downloads/data-excel/17.13.1.1.xlsx
+++ b/ky/downloads/data-excel/17.13.1.1.xlsx
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="37.42578125" customWidth="1"/>
+    <col min="1" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
@@ -672,7 +672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -722,10 +722,10 @@
         <v>109</v>
       </c>
       <c r="Q4" s="14">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -831,7 +831,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -880,9 +880,11 @@
       <c r="P7" s="14">
         <v>-10400.700000000001</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="14">
+        <v>12685.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -929,9 +931,11 @@
         <v>436586.8</v>
       </c>
       <c r="P8" s="14">
-        <v>477967.8</v>
-      </c>
-      <c r="Q8" s="14"/>
+        <v>478225.6</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>559503.6</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -982,9 +986,11 @@
       <c r="P9" s="14">
         <v>144.69999999999999</v>
       </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="14">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1033,9 +1039,11 @@
       <c r="P10" s="15">
         <v>2254.6999999999998</v>
       </c>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="15">
+        <v>3384.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1092,9 @@
       <c r="P11" s="16">
         <v>9803.2000000000007</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="16">
+        <v>12517.9</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
